--- a/run_entrance/test_suite/test_suite_jbj06取件.xlsx
+++ b/run_entrance/test_suite/test_suite_jbj06取件.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21045" windowHeight="9765" activeTab="3"/>
+    <workbookView windowWidth="21045" windowHeight="9765"/>
   </bookViews>
   <sheets>
     <sheet name="PageElements" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="96">
   <si>
     <t>模块</t>
   </si>
@@ -155,6 +155,12 @@
   </si>
   <si>
     <t>//button[text()='取件']</t>
+  </si>
+  <si>
+    <t>取件-取件人姓名</t>
+  </si>
+  <si>
+    <t>//label[contains(text(),'取件人姓名')]/following-sibling::div/input</t>
   </si>
   <si>
     <t>取件-确定</t>
@@ -308,8 +314,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -331,22 +337,61 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -361,36 +406,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -398,25 +414,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -430,14 +430,28 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -451,14 +465,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -466,11 +472,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -489,13 +495,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,169 +669,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -680,45 +686,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -741,7 +708,42 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -761,13 +763,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -788,10 +794,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -800,133 +806,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1325,12 +1331,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1606,30 +1612,30 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" ht="14.25" spans="1:5">
-      <c r="A18" s="1"/>
+    <row r="18" ht="14.25" spans="2:5">
       <c r="B18" s="14" t="s">
         <v>46</v>
       </c>
       <c r="C18" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="25" t="s">
+    </row>
+    <row r="19" ht="14.25" spans="1:5">
+      <c r="A19" s="1"/>
+      <c r="B19" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="C19" s="14" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="19" ht="14.25" spans="2:5">
-      <c r="B19" s="14" t="s">
+      <c r="D19" s="25" t="s">
         <v>50</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>9</v>
       </c>
       <c r="E19" s="14" t="s">
         <v>51</v>
@@ -1640,7 +1646,7 @@
         <v>52</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D20" s="25" t="s">
         <v>9</v>
@@ -1650,27 +1656,41 @@
       </c>
     </row>
     <row r="21" ht="14.25" spans="2:5">
-      <c r="B21" s="14"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="23"/>
-    </row>
-    <row r="22" spans="3:5">
+      <c r="B21" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25" spans="2:5">
+      <c r="B22" s="14"/>
       <c r="C22" s="8"/>
       <c r="D22" s="24"/>
       <c r="E22" s="23"/>
     </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="8"/>
+    <row r="23" spans="3:5">
       <c r="C23" s="8"/>
       <c r="D23" s="24"/>
       <c r="E23" s="23"/>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" spans="2:5">
       <c r="B24" s="8"/>
-    </row>
-    <row r="26" ht="14.25" spans="6:6">
-      <c r="F26" s="15"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="23"/>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="8"/>
+    </row>
+    <row r="27" ht="14.25" spans="6:6">
+      <c r="F27" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1694,12 +1714,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:1">
       <c r="A2" s="15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1728,59 +1748,59 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:7">
       <c r="A1" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" ht="27" spans="1:5">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:5">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="16" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:3">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>29</v>
@@ -1789,30 +1809,30 @@
     </row>
     <row r="5" ht="40.5" spans="1:5">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1824,10 +1844,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1842,33 +1862,33 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:8">
       <c r="A1" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:6">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>6</v>
@@ -1877,14 +1897,14 @@
         <v>7</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="10"/>
     </row>
     <row r="3" ht="14.25" spans="1:6">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>6</v>
@@ -1900,7 +1920,7 @@
     </row>
     <row r="4" ht="14.25" spans="1:6">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>6</v>
@@ -1914,7 +1934,7 @@
     </row>
     <row r="5" ht="14.25" spans="1:6">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>16</v>
@@ -1928,7 +1948,7 @@
     </row>
     <row r="6" ht="14.25" spans="1:6">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>16</v>
@@ -1938,13 +1958,13 @@
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>22</v>
@@ -1957,7 +1977,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>22</v>
@@ -1973,7 +1993,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>28</v>
@@ -1989,7 +2009,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>28</v>
@@ -1998,12 +2018,12 @@
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>28</v>
@@ -2012,12 +2032,12 @@
         <v>33</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>28</v>
@@ -2031,7 +2051,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>28</v>
@@ -2040,12 +2060,12 @@
         <v>37</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>28</v>
@@ -2059,7 +2079,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>40</v>
@@ -2070,7 +2090,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>40</v>
@@ -2079,12 +2099,12 @@
         <v>43</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>40</v>
@@ -2097,9 +2117,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" ht="14.25" spans="1:3">
+    <row r="18" ht="14.25" spans="1:5">
       <c r="A18" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>40</v>
@@ -2107,27 +2127,25 @@
       <c r="C18" s="14" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="19" ht="14.25" spans="1:6">
+      <c r="D18" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" ht="14.25" spans="1:3">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="F19" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" ht="14.25" spans="1:3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25" spans="1:6">
       <c r="A20" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>40</v>
@@ -2135,17 +2153,34 @@
       <c r="C20" s="14" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="22" ht="14.25" spans="3:5">
-      <c r="C22" s="8"/>
-      <c r="E22" s="15"/>
-    </row>
-    <row r="23" spans="3:3">
+      <c r="E20" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25" spans="1:3">
+      <c r="A21" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25" spans="3:5">
       <c r="C23" s="8"/>
-    </row>
-    <row r="27" spans="3:3">
-      <c r="C27" s="1" t="s">
-        <v>93</v>
+      <c r="E23" s="15"/>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" s="8"/>
+    </row>
+    <row r="28" spans="3:3">
+      <c r="C28" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/run_entrance/test_suite/test_suite_jbj06取件.xlsx
+++ b/run_entrance/test_suite/test_suite_jbj06取件.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21045" windowHeight="9765"/>
+    <workbookView windowWidth="21045" windowHeight="9765" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PageElements" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="96">
   <si>
     <t>模块</t>
   </si>
@@ -190,7 +190,7 @@
     <t>url</t>
   </si>
   <si>
-    <t>http://10.45.67.194:9180/</t>
+    <t>http://10.45.67.194:9180/mainmanager.html</t>
   </si>
   <si>
     <t>测试用例序号</t>
@@ -312,12 +312,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -336,10 +336,130 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FF3296FA"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -351,39 +471,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -396,89 +485,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -495,187 +501,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -686,21 +692,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -722,6 +713,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -733,17 +733,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -780,9 +769,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -794,10 +800,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -806,137 +812,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -984,6 +990,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1333,7 +1342,7 @@
   <sheetPr/>
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
@@ -1344,8 +1353,8 @@
     <col min="1" max="1" width="18.875" customWidth="1"/>
     <col min="2" max="2" width="31.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="18" customWidth="1"/>
-    <col min="5" max="5" width="84.875" style="19" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="19" customWidth="1"/>
+    <col min="5" max="5" width="84.875" style="20" customWidth="1"/>
     <col min="6" max="6" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1359,10 +1368,10 @@
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="22" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
@@ -1379,10 +1388,10 @@
       <c r="C2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="24" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1394,10 +1403,10 @@
       <c r="C3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="24" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1409,10 +1418,10 @@
       <c r="C4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="24" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1426,10 +1435,10 @@
       <c r="C5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="24" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1440,10 +1449,10 @@
       <c r="C6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="24" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1457,10 +1466,10 @@
       <c r="C7" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="24" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1472,7 +1481,7 @@
       <c r="C8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="14" t="s">
@@ -1489,10 +1498,10 @@
       <c r="C9" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="24" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1503,10 +1512,10 @@
       <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="20" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1517,10 +1526,10 @@
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="20" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1531,7 +1540,7 @@
       <c r="C12" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="14" t="s">
@@ -1545,10 +1554,10 @@
       <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="20" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1559,7 +1568,7 @@
       <c r="C14" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="19" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="14" t="s">
@@ -1576,10 +1585,10 @@
       <c r="C15" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="24" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1591,10 +1600,10 @@
       <c r="C16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="24" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1605,7 +1614,7 @@
       <c r="C17" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="19" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="14" t="s">
@@ -1619,7 +1628,7 @@
       <c r="C18" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="19" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="14" t="s">
@@ -1634,7 +1643,7 @@
       <c r="C19" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="26" t="s">
         <v>50</v>
       </c>
       <c r="E19" s="14" t="s">
@@ -1648,7 +1657,7 @@
       <c r="C20" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="26" t="s">
         <v>9</v>
       </c>
       <c r="E20" s="14" t="s">
@@ -1662,7 +1671,7 @@
       <c r="C21" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="26" t="s">
         <v>9</v>
       </c>
       <c r="E21" s="14" t="s">
@@ -1672,19 +1681,19 @@
     <row r="22" ht="14.25" spans="2:5">
       <c r="B22" s="14"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="23"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="24"/>
     </row>
     <row r="23" spans="3:5">
       <c r="C23" s="8"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="23"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="24"/>
     </row>
     <row r="24" spans="2:5">
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="23"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="24"/>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="8"/>
@@ -1717,12 +1726,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:1">
-      <c r="A2" s="15" t="s">
+    <row r="2" ht="15.75" spans="1:1">
+      <c r="A2" s="18" t="s">
         <v>57</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="http://10.45.67.194:9180/mainmanager.html" tooltip="http://10.45.67.194:9180/mainmanager.html"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1844,10 +1856,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C13:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1896,7 +1908,7 @@
       <c r="C2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="27" t="s">
         <v>88</v>
       </c>
       <c r="E2" s="9"/>
@@ -2117,7 +2129,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" ht="14.25" spans="1:5">
+    <row r="18" ht="14.25" spans="1:3">
       <c r="A18" t="s">
         <v>78</v>
       </c>
@@ -2125,14 +2137,10 @@
         <v>40</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" ht="14.25" spans="1:3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" spans="1:6">
       <c r="A19" t="s">
         <v>78</v>
       </c>
@@ -2140,10 +2148,16 @@
         <v>40</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" ht="14.25" spans="1:6">
+        <v>52</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25" spans="1:3">
       <c r="A20" t="s">
         <v>78</v>
       </c>
@@ -2151,35 +2165,18 @@
         <v>40</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="F20" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" ht="14.25" spans="1:3">
-      <c r="A21" t="s">
-        <v>78</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="14" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="23" ht="14.25" spans="3:5">
+    <row r="22" ht="14.25" spans="3:5">
+      <c r="C22" s="8"/>
+      <c r="E22" s="15"/>
+    </row>
+    <row r="23" spans="3:3">
       <c r="C23" s="8"/>
-      <c r="E23" s="15"/>
-    </row>
-    <row r="24" spans="3:3">
-      <c r="C24" s="8"/>
-    </row>
-    <row r="28" spans="3:3">
-      <c r="C28" s="1" t="s">
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" s="1" t="s">
         <v>95</v>
       </c>
     </row>

--- a/run_entrance/test_suite/test_suite_jbj06取件.xlsx
+++ b/run_entrance/test_suite/test_suite_jbj06取件.xlsx
@@ -312,9 +312,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -340,6 +340,27 @@
       <color rgb="FF3296FA"/>
       <name val="Segoe UI"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -350,6 +371,105 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -365,126 +485,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -501,48 +501,132 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -555,25 +639,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,103 +681,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,9 +706,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -753,32 +779,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -800,10 +800,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -812,133 +812,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1859,7 +1859,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C13:G14"/>
+      <selection activeCell="C10" sqref="C9:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2033,7 +2033,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>74</v>
       </c>
@@ -2045,6 +2045,9 @@
       </c>
       <c r="D11" s="2" t="s">
         <v>91</v>
+      </c>
+      <c r="F11" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:6">
